--- a/paper/comparison/655-optimizers-medium_times.xlsx
+++ b/paper/comparison/655-optimizers-medium_times.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J21"/>
+  <dimension ref="A1:F21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,42 +441,22 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>gdpa-pd-lr3-d1.5-b10.9-b20.999-e0.1-g0.9</t>
+          <t>gdpa-pd</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>gdpa-pd-lr3-d1.5-b10.9-b20.999-e0.1-g1.5</t>
+          <t>gdpa-adam</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>gdpa-pd-lr3-d1.5-b10.9-b20.999-e0.1-g5</t>
+          <t>gdpa-noise</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>gdpa-adam-lr3-d1.5-b10.9-b20.999-e0.1</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>gdpa-noise-lr3-d1.5-g0.9</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>gdpa-noise-lr3-d1.5-g1.5</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>gdpa-noise-lr3-d1.5-g5</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>gdpa-direct-lr3-d1.5</t>
+          <t>gdpa-direct</t>
         </is>
       </c>
     </row>
@@ -485,31 +465,19 @@
         <v>0.5</v>
       </c>
       <c r="B2" t="n">
-        <v>0.005601106000000015</v>
+        <v>0.005916605999999995</v>
       </c>
       <c r="C2" t="n">
-        <v>0.005620310000000015</v>
+        <v>0.005738392000000019</v>
       </c>
       <c r="D2" t="n">
-        <v>0.005600757999999972</v>
+        <v>0.005589607999999995</v>
       </c>
       <c r="E2" t="n">
-        <v>0.005900909999999961</v>
+        <v>0.005557756000000001</v>
       </c>
       <c r="F2" t="n">
-        <v>0.005528830000000013</v>
-      </c>
-      <c r="G2" t="n">
-        <v>0.005512043999999974</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0.005444037999999996</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0.005458396000000016</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0.005427418000000008</v>
+        <v>0.005759731999999982</v>
       </c>
     </row>
     <row r="3">
@@ -517,31 +485,19 @@
         <v>0.5210526315789473</v>
       </c>
       <c r="B3" t="n">
-        <v>0.005743258</v>
+        <v>0.006043549999999986</v>
       </c>
       <c r="C3" t="n">
-        <v>0.005509304000000013</v>
+        <v>0.005754311999999988</v>
       </c>
       <c r="D3" t="n">
-        <v>0.00556704399999997</v>
+        <v>0.005550168000000002</v>
       </c>
       <c r="E3" t="n">
-        <v>0.005577539999999956</v>
+        <v>0.005667599999999991</v>
       </c>
       <c r="F3" t="n">
-        <v>0.005579788000000017</v>
-      </c>
-      <c r="G3" t="n">
-        <v>0.00547791800000001</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0.005447763999999982</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0.005500133999999979</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0.005425123999999992</v>
+        <v>0.005543360000000002</v>
       </c>
     </row>
     <row r="4">
@@ -549,31 +505,19 @@
         <v>0.5421052631578948</v>
       </c>
       <c r="B4" t="n">
-        <v>0.006700736000000007</v>
+        <v>0.006593130000000018</v>
       </c>
       <c r="C4" t="n">
-        <v>0.008180399999999971</v>
+        <v>0.008372946000000003</v>
       </c>
       <c r="D4" t="n">
-        <v>0.008591584000000006</v>
+        <v>0.008083841999999999</v>
       </c>
       <c r="E4" t="n">
-        <v>0.008556640000000004</v>
+        <v>0.008029112000000031</v>
       </c>
       <c r="F4" t="n">
-        <v>0.008613944000000035</v>
-      </c>
-      <c r="G4" t="n">
-        <v>0.008310336000000031</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0.008850392000000023</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0.008727732000000002</v>
-      </c>
-      <c r="J4" t="n">
-        <v>0.008114267999999982</v>
+        <v>0.007987335999999989</v>
       </c>
     </row>
     <row r="5">
@@ -581,31 +525,19 @@
         <v>0.5631578947368421</v>
       </c>
       <c r="B5" t="n">
-        <v>0.007268005999999994</v>
+        <v>0.007412992000000016</v>
       </c>
       <c r="C5" t="n">
-        <v>0.011067942</v>
+        <v>0.011472114</v>
       </c>
       <c r="D5" t="n">
-        <v>0.009912908000000003</v>
+        <v>0.01041930999999998</v>
       </c>
       <c r="E5" t="n">
-        <v>0.009922480000000022</v>
+        <v>0.01019062200000001</v>
       </c>
       <c r="F5" t="n">
-        <v>0.009952656000000002</v>
-      </c>
-      <c r="G5" t="n">
-        <v>0.01049330000000002</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0.01085516399999997</v>
-      </c>
-      <c r="I5" t="n">
-        <v>0.01003477400000002</v>
-      </c>
-      <c r="J5" t="n">
-        <v>0.01012036000000003</v>
+        <v>0.01032982200000002</v>
       </c>
     </row>
     <row r="6">
@@ -613,31 +545,19 @@
         <v>0.5842105263157895</v>
       </c>
       <c r="B6" t="n">
-        <v>0.007737912000000038</v>
+        <v>0.008117163999999977</v>
       </c>
       <c r="C6" t="n">
-        <v>0.01551709</v>
+        <v>0.015905546</v>
       </c>
       <c r="D6" t="n">
-        <v>0.01377443800000001</v>
+        <v>0.01390064800000001</v>
       </c>
       <c r="E6" t="n">
-        <v>0.01334664399999998</v>
+        <v>0.01368321400000001</v>
       </c>
       <c r="F6" t="n">
-        <v>0.01358140799999999</v>
-      </c>
-      <c r="G6" t="n">
-        <v>0.01364374800000001</v>
-      </c>
-      <c r="H6" t="n">
-        <v>0.013492646</v>
-      </c>
-      <c r="I6" t="n">
-        <v>0.01330477400000001</v>
-      </c>
-      <c r="J6" t="n">
-        <v>0.013387438</v>
+        <v>0.01359406800000002</v>
       </c>
     </row>
     <row r="7">
@@ -645,31 +565,19 @@
         <v>0.6052631578947368</v>
       </c>
       <c r="B7" t="n">
-        <v>0.008959940000000017</v>
+        <v>0.008997869999999989</v>
       </c>
       <c r="C7" t="n">
-        <v>0.01995675399999997</v>
+        <v>0.01857896000000001</v>
       </c>
       <c r="D7" t="n">
-        <v>0.01852359199999999</v>
+        <v>0.01874851999999998</v>
       </c>
       <c r="E7" t="n">
-        <v>0.01855004199999999</v>
+        <v>0.01843995599999998</v>
       </c>
       <c r="F7" t="n">
-        <v>0.01835113400000006</v>
-      </c>
-      <c r="G7" t="n">
-        <v>0.01857515200000002</v>
-      </c>
-      <c r="H7" t="n">
-        <v>0.01845070199999997</v>
-      </c>
-      <c r="I7" t="n">
-        <v>0.01805254000000002</v>
-      </c>
-      <c r="J7" t="n">
-        <v>0.018143594</v>
+        <v>0.01858999599999998</v>
       </c>
     </row>
     <row r="8">
@@ -677,31 +585,19 @@
         <v>0.6263157894736842</v>
       </c>
       <c r="B8" t="n">
-        <v>0.010844306</v>
+        <v>0.010837758</v>
       </c>
       <c r="C8" t="n">
-        <v>0.027230834</v>
+        <v>0.02406350599999998</v>
       </c>
       <c r="D8" t="n">
-        <v>0.02262483199999997</v>
+        <v>0.02096004600000001</v>
       </c>
       <c r="E8" t="n">
-        <v>0.02103584799999996</v>
+        <v>0.021137502</v>
       </c>
       <c r="F8" t="n">
-        <v>0.020401758</v>
-      </c>
-      <c r="G8" t="n">
-        <v>0.02080219600000003</v>
-      </c>
-      <c r="H8" t="n">
-        <v>0.01975457600000006</v>
-      </c>
-      <c r="I8" t="n">
-        <v>0.01961094800000004</v>
-      </c>
-      <c r="J8" t="n">
-        <v>0.01962026199999997</v>
+        <v>0.02026592200000001</v>
       </c>
     </row>
     <row r="9">
@@ -709,31 +605,19 @@
         <v>0.6473684210526316</v>
       </c>
       <c r="B9" t="n">
-        <v>0.01200454600000003</v>
+        <v>0.01232082200000002</v>
       </c>
       <c r="C9" t="n">
-        <v>0.03273114400000002</v>
+        <v>0.02984445400000002</v>
       </c>
       <c r="D9" t="n">
-        <v>0.02862988599999998</v>
+        <v>0.03086404000000002</v>
       </c>
       <c r="E9" t="n">
-        <v>0.03010603200000002</v>
+        <v>0.02937576200000001</v>
       </c>
       <c r="F9" t="n">
-        <v>0.029738758</v>
-      </c>
-      <c r="G9" t="n">
-        <v>0.02960751799999999</v>
-      </c>
-      <c r="H9" t="n">
-        <v>0.02872895799999997</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0.02872471799999997</v>
-      </c>
-      <c r="J9" t="n">
-        <v>0.02855161999999997</v>
+        <v>0.02918100800000003</v>
       </c>
     </row>
     <row r="10">
@@ -741,31 +625,19 @@
         <v>0.6684210526315789</v>
       </c>
       <c r="B10" t="n">
-        <v>0.01682370000000004</v>
+        <v>0.01564503000000004</v>
       </c>
       <c r="C10" t="n">
-        <v>0.07563513199999998</v>
+        <v>0.05396090399999998</v>
       </c>
       <c r="D10" t="n">
-        <v>0.05139975199999999</v>
+        <v>0.04971622000000003</v>
       </c>
       <c r="E10" t="n">
-        <v>0.05097803599999999</v>
+        <v>0.05213922799999995</v>
       </c>
       <c r="F10" t="n">
-        <v>0.05218388999999997</v>
-      </c>
-      <c r="G10" t="n">
-        <v>0.067013354</v>
-      </c>
-      <c r="H10" t="n">
-        <v>0.04588290199999997</v>
-      </c>
-      <c r="I10" t="n">
-        <v>0.05136580999999995</v>
-      </c>
-      <c r="J10" t="n">
-        <v>0.05252477399999995</v>
+        <v>0.05187960199999998</v>
       </c>
     </row>
     <row r="11">
@@ -773,31 +645,19 @@
         <v>0.6894736842105263</v>
       </c>
       <c r="B11" t="n">
-        <v>0.02466986200000002</v>
+        <v>0.02292911200000003</v>
       </c>
       <c r="C11" t="n">
-        <v>0.1953277560000001</v>
+        <v>0.132941862</v>
       </c>
       <c r="D11" t="n">
-        <v>0.1341552939999999</v>
+        <v>0.122075516</v>
       </c>
       <c r="E11" t="n">
-        <v>0.1206826059999999</v>
+        <v>0.112592802</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1213685199999999</v>
-      </c>
-      <c r="G11" t="n">
-        <v>0.180301574</v>
-      </c>
-      <c r="H11" t="n">
-        <v>0.1185509040000001</v>
-      </c>
-      <c r="I11" t="n">
-        <v>0.121107488</v>
-      </c>
-      <c r="J11" t="n">
-        <v>0.1215357299999999</v>
+        <v>0.12224089</v>
       </c>
     </row>
     <row r="12">
@@ -805,31 +665,19 @@
         <v>0.7105263157894737</v>
       </c>
       <c r="B12" t="n">
-        <v>0.04737371999999992</v>
+        <v>0.04609973199999989</v>
       </c>
       <c r="C12" t="n">
-        <v>0.295202298</v>
+        <v>0.2432539100000001</v>
       </c>
       <c r="D12" t="n">
-        <v>0.1768276739999999</v>
+        <v>0.165429882</v>
       </c>
       <c r="E12" t="n">
-        <v>0.160778058</v>
+        <v>0.3725520419999999</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1625509979999998</v>
-      </c>
-      <c r="G12" t="n">
-        <v>0.4151548620000003</v>
-      </c>
-      <c r="H12" t="n">
-        <v>0.2212552857142858</v>
-      </c>
-      <c r="I12" t="n">
-        <v>0.3202677840000003</v>
-      </c>
-      <c r="J12" t="n">
-        <v>0.3197281960000001</v>
+        <v>0.3372605000000001</v>
       </c>
     </row>
     <row r="13">
@@ -837,31 +685,19 @@
         <v>0.7315789473684211</v>
       </c>
       <c r="B13" t="n">
-        <v>0.04670025833333389</v>
+        <v>0.04348405416666665</v>
       </c>
       <c r="C13" t="n">
-        <v>0.4521397139999999</v>
+        <v>0.3174926320000003</v>
       </c>
       <c r="D13" t="n">
-        <v>0.285631916</v>
+        <v>0.2842269220000002</v>
       </c>
       <c r="E13" t="n">
-        <v>0.2807718179999999</v>
+        <v>0.4294672780000001</v>
       </c>
       <c r="F13" t="n">
-        <v>0.2819299979999999</v>
-      </c>
-      <c r="G13" t="n">
-        <v>1.011998096</v>
-      </c>
-      <c r="H13" t="n">
-        <v>0.3773799224489802</v>
-      </c>
-      <c r="I13" t="n">
-        <v>0.505661116</v>
-      </c>
-      <c r="J13" t="n">
-        <v>0.5008789740000004</v>
+        <v>0.5172736999999997</v>
       </c>
     </row>
     <row r="14">
@@ -869,31 +705,19 @@
         <v>0.7526315789473684</v>
       </c>
       <c r="B14" t="n">
-        <v>0.07332779777777737</v>
+        <v>0.07289369111111157</v>
       </c>
       <c r="C14" t="n">
-        <v>0.589297757446808</v>
+        <v>0.6606947395833335</v>
       </c>
       <c r="D14" t="n">
-        <v>0.4744000833333333</v>
+        <v>0.4796175416666668</v>
       </c>
       <c r="E14" t="n">
-        <v>0.4773889541666659</v>
+        <v>0.7277002851063828</v>
       </c>
       <c r="F14" t="n">
-        <v>0.4715582374999996</v>
-      </c>
-      <c r="G14" t="n">
-        <v>1.119326264583334</v>
-      </c>
-      <c r="H14" t="n">
-        <v>0.8007088617021283</v>
-      </c>
-      <c r="I14" t="n">
-        <v>0.5536756319148944</v>
-      </c>
-      <c r="J14" t="n">
-        <v>0.5548758063829787</v>
+        <v>0.5627821170212768</v>
       </c>
     </row>
     <row r="15">
@@ -901,31 +725,19 @@
         <v>0.7736842105263158</v>
       </c>
       <c r="B15" t="n">
-        <v>0.06767390714285598</v>
+        <v>0.0674863190476187</v>
       </c>
       <c r="C15" t="n">
-        <v>0.8602315717391299</v>
+        <v>0.597474702222223</v>
       </c>
       <c r="D15" t="n">
-        <v>0.6198874553191492</v>
+        <v>0.48779905</v>
       </c>
       <c r="E15" t="n">
-        <v>0.4874456695652165</v>
+        <v>1.86535578</v>
       </c>
       <c r="F15" t="n">
-        <v>0.4834137652173917</v>
-      </c>
-      <c r="G15" t="n">
-        <v>2.341537552272728</v>
-      </c>
-      <c r="H15" t="n">
-        <v>3.328268755555554</v>
-      </c>
-      <c r="I15" t="n">
-        <v>1.385456285714284</v>
-      </c>
-      <c r="J15" t="n">
-        <v>1.380007159523809</v>
+        <v>1.420558666666665</v>
       </c>
     </row>
     <row r="16">
@@ -933,31 +745,19 @@
         <v>0.7947368421052632</v>
       </c>
       <c r="B16" t="n">
-        <v>0.1130555722222232</v>
+        <v>0.1055881888888884</v>
       </c>
       <c r="C16" t="n">
-        <v>0.986399017073171</v>
+        <v>0.7307129634146331</v>
       </c>
       <c r="D16" t="n">
-        <v>0.6685323780487801</v>
+        <v>0.797364877500001</v>
       </c>
       <c r="E16" t="n">
-        <v>0.7880267099999974</v>
+        <v>2.207854546341462</v>
       </c>
       <c r="F16" t="n">
-        <v>0.7889697874999989</v>
-      </c>
-      <c r="G16" t="n">
-        <v>4.00112322682927</v>
-      </c>
-      <c r="H16" t="n">
-        <v>3.531697351219513</v>
-      </c>
-      <c r="I16" t="n">
-        <v>2.953276438461538</v>
-      </c>
-      <c r="J16" t="n">
-        <v>2.932129925641026</v>
+        <v>2.961313243589743</v>
       </c>
     </row>
     <row r="17">
@@ -965,31 +765,19 @@
         <v>0.8157894736842105</v>
       </c>
       <c r="B17" t="n">
-        <v>0.114799846153837</v>
+        <v>0.1102815230769224</v>
       </c>
       <c r="C17" t="n">
-        <v>2.030457848648648</v>
+        <v>2.209112066666666</v>
       </c>
       <c r="D17" t="n">
-        <v>1.751353145945939</v>
+        <v>1.755131928205127</v>
       </c>
       <c r="E17" t="n">
-        <v>1.705166856410254</v>
+        <v>5.09685196875</v>
       </c>
       <c r="F17" t="n">
-        <v>1.693046987179486</v>
-      </c>
-      <c r="G17" t="n">
-        <v>9.373511996969704</v>
-      </c>
-      <c r="H17" t="n">
-        <v>6.07996475454545</v>
-      </c>
-      <c r="I17" t="n">
-        <v>4.98625130333333</v>
-      </c>
-      <c r="J17" t="n">
-        <v>5.063487683333345</v>
+        <v>5.103957423333338</v>
       </c>
     </row>
     <row r="18">
@@ -997,31 +785,19 @@
         <v>0.8368421052631578</v>
       </c>
       <c r="B18" t="n">
-        <v>0.1613816588235221</v>
+        <v>0.1585096352941149</v>
       </c>
       <c r="C18" t="n">
-        <v>3.698201872413793</v>
+        <v>2.056713371428579</v>
       </c>
       <c r="D18" t="n">
-        <v>2.295956137931037</v>
+        <v>3.002151103448278</v>
       </c>
       <c r="E18" t="n">
-        <v>2.82888276896553</v>
+        <v>10.62372171250001</v>
       </c>
       <c r="F18" t="n">
-        <v>2.829009044827561</v>
-      </c>
-      <c r="G18" t="n">
-        <v>10.78288197500001</v>
-      </c>
-      <c r="H18" t="n">
-        <v>12.69006744799999</v>
-      </c>
-      <c r="I18" t="n">
-        <v>7.313498352173897</v>
-      </c>
-      <c r="J18" t="n">
-        <v>7.312900095652171</v>
+        <v>7.61118196521738</v>
       </c>
     </row>
     <row r="19">
@@ -1029,31 +805,19 @@
         <v>0.8578947368421053</v>
       </c>
       <c r="B19" t="n">
-        <v>0.379364944444458</v>
+        <v>0.4170456777777392</v>
       </c>
       <c r="C19" t="n">
-        <v>4.632245011764697</v>
+        <v>4.271783894736835</v>
       </c>
       <c r="D19" t="n">
-        <v>5.231759763636362</v>
+        <v>6.076834265000009</v>
       </c>
       <c r="E19" t="n">
-        <v>5.508284629999957</v>
+        <v>12.42029017142858</v>
       </c>
       <c r="F19" t="n">
-        <v>5.530664469999975</v>
-      </c>
-      <c r="G19" t="n">
-        <v>11.98800919999999</v>
-      </c>
-      <c r="H19" t="n">
-        <v>13.63299681666677</v>
-      </c>
-      <c r="I19" t="n">
-        <v>11.06362339166662</v>
-      </c>
-      <c r="J19" t="n">
-        <v>11.05602502500001</v>
+        <v>12.34410785833336</v>
       </c>
     </row>
     <row r="20">
@@ -1061,31 +825,19 @@
         <v>0.8789473684210527</v>
       </c>
       <c r="B20" t="n">
-        <v>0.6024847499999737</v>
+        <v>0.5995561249999355</v>
       </c>
       <c r="C20" t="n">
-        <v>6.819599222222211</v>
+        <v>4.496620429999959</v>
       </c>
       <c r="D20" t="n">
-        <v>4.081879659999993</v>
+        <v>4.430859400000043</v>
       </c>
       <c r="E20" t="n">
-        <v>4.267338339999981</v>
+        <v>16.69705365714285</v>
       </c>
       <c r="F20" t="n">
-        <v>4.268469320000031</v>
-      </c>
-      <c r="G20" t="n">
-        <v>25.61238566250002</v>
-      </c>
-      <c r="H20" t="n">
-        <v>17.56748053333338</v>
-      </c>
-      <c r="I20" t="n">
-        <v>35.34380137142853</v>
-      </c>
-      <c r="J20" t="n">
-        <v>35.32814855714287</v>
+        <v>36.84570775714278</v>
       </c>
     </row>
     <row r="21">
@@ -1093,31 +845,19 @@
         <v>0.9</v>
       </c>
       <c r="B21" t="n">
-        <v>0.432181700000001</v>
+        <v>0.4432491499999287</v>
       </c>
       <c r="C21" t="n">
-        <v>7.642135633333358</v>
+        <v>4.778289466666744</v>
       </c>
       <c r="D21" t="n">
-        <v>8.134896720000143</v>
+        <v>11.57886944999996</v>
       </c>
       <c r="E21" t="n">
-        <v>11.16254727499995</v>
+        <v>22.85861305000003</v>
       </c>
       <c r="F21" t="n">
-        <v>11.12053007500003</v>
-      </c>
-      <c r="G21" t="n">
-        <v>53.24028249999992</v>
-      </c>
-      <c r="H21" t="n">
-        <v>27.54173970000011</v>
-      </c>
-      <c r="I21" t="n">
-        <v>39.17963219999956</v>
-      </c>
-      <c r="J21" t="n">
-        <v>39.46023960000002</v>
+        <v>41.10160969999993</v>
       </c>
     </row>
   </sheetData>
